--- a/data/terceros.xlsx
+++ b/data/terceros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camon\Documents\SYNC BI\NEVOX FARMA\Egresos\pdf-terceros-mailer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{986A8D04-DE75-46E8-A5A6-ACAF35EBBEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7E6E7B-0F6D-4B7F-8856-9C57A8C83C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CF22D517-537F-46EE-916E-5B570FD9473C}"/>
+    <workbookView xWindow="-25440" yWindow="3360" windowWidth="21600" windowHeight="11235" xr2:uid="{CF22D517-537F-46EE-916E-5B570FD9473C}"/>
   </bookViews>
   <sheets>
     <sheet name="Consulta General Xirux" sheetId="1" r:id="rId1"/>
@@ -39,22 +39,22 @@
     <t>Correo</t>
   </si>
   <si>
-    <t>URIBE GUILLERMO</t>
-  </si>
-  <si>
     <t>BIOGENERICOS SAS</t>
   </si>
   <si>
     <t>camonteroperez@gmail.com</t>
   </si>
   <si>
-    <t>HDI SEGUROS COLOMBIA S.A.</t>
-  </si>
-  <si>
     <t>CARVAJAL TECNOLOGIA Y SERVICIOS S A</t>
   </si>
   <si>
     <t>carlos.montero@syncbi.net</t>
+  </si>
+  <si>
+    <t>desarrollo.fya@nevoxfarma.com</t>
+  </si>
+  <si>
+    <t>gestor.fya@nevoxfarma.com</t>
   </si>
 </sst>
 </file>
@@ -424,13 +424,13 @@
   <dimension ref="A1:C7809"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="76.77734375" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -448,22 +448,18 @@
       <c r="A2" s="1">
         <v>860039988</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>79813424</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -471,18 +467,22 @@
         <v>830030321</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>890321151</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -39509,6 +39509,8 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{39E1E8EE-F3A5-4C47-AD75-A4A45F7A37DE}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{7DE84A61-4BF3-497E-9414-24CBFCBEBE29}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{078D2991-BD33-4861-91E5-7145B010C66C}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{8DB12554-491B-4BEB-8693-6A2003481CE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/data/terceros.xlsx
+++ b/data/terceros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camon\Documents\SYNC BI\NEVOX FARMA\Egresos\pdf-terceros-mailer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7E6E7B-0F6D-4B7F-8856-9C57A8C83C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1669109A-4080-483E-8B70-2CFD5F61F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25440" yWindow="3360" windowWidth="21600" windowHeight="11235" xr2:uid="{CF22D517-537F-46EE-916E-5B570FD9473C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CF22D517-537F-46EE-916E-5B570FD9473C}"/>
   </bookViews>
   <sheets>
     <sheet name="Consulta General Xirux" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Consulta General Xirux'!$A$1:$C$7809</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Nit</t>
   </si>
@@ -46,15 +47,6 @@
   </si>
   <si>
     <t>CARVAJAL TECNOLOGIA Y SERVICIOS S A</t>
-  </si>
-  <si>
-    <t>carlos.montero@syncbi.net</t>
-  </si>
-  <si>
-    <t>desarrollo.fya@nevoxfarma.com</t>
-  </si>
-  <si>
-    <t>gestor.fya@nevoxfarma.com</t>
   </si>
 </sst>
 </file>
@@ -424,13 +416,13 @@
   <dimension ref="A1:C7809"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="76.77734375" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" customWidth="1"/>
+    <col min="3" max="3" width="37.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -459,7 +451,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -470,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -481,7 +473,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -39508,11 +39500,10 @@
   <autoFilter ref="A1:C7809" xr:uid="{7B82156A-906E-4D1D-B6BE-15E1A8DAA1D7}"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{39E1E8EE-F3A5-4C47-AD75-A4A45F7A37DE}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{7DE84A61-4BF3-497E-9414-24CBFCBEBE29}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{078D2991-BD33-4861-91E5-7145B010C66C}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{8DB12554-491B-4BEB-8693-6A2003481CE1}"/>
+    <hyperlink ref="C3:C5" r:id="rId2" display="camonteroperez@gmail.com" xr:uid="{7ACDA7A5-92FA-481A-B7ED-4EEE1906E432}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Informacion publica</oddFooter>
   </headerFooter>

--- a/data/terceros.xlsx
+++ b/data/terceros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camon\Documents\SYNC BI\NEVOX FARMA\Egresos\pdf-terceros-mailer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1669109A-4080-483E-8B70-2CFD5F61F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7BD903-44BC-4325-A0E4-C771C631902E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CF22D517-537F-46EE-916E-5B570FD9473C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CF22D517-537F-46EE-916E-5B570FD9473C}"/>
   </bookViews>
   <sheets>
     <sheet name="Consulta General Xirux" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Consulta General Xirux'!$A$1:$C$7809</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>Nit</t>
   </si>
@@ -40,20 +39,410 @@
     <t>Correo</t>
   </si>
   <si>
-    <t>BIOGENERICOS SAS</t>
+    <t>ABC GOTUPLAS LTDA</t>
   </si>
   <si>
-    <t>camonteroperez@gmail.com</t>
+    <t>ACTIVESOFT</t>
   </si>
   <si>
-    <t>CARVAJAL TECNOLOGIA Y SERVICIOS S A</t>
+    <t>ADEXA PHARMA SAS</t>
+  </si>
+  <si>
+    <t>APONTE HERRERA YIMMY</t>
+  </si>
+  <si>
+    <t>AVALQUIMICO S.A.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAGES Y COMPAÑIA LIMITADA BAGES Y CO LTDA </t>
+  </si>
+  <si>
+    <t>BENSTAR SAS</t>
+  </si>
+  <si>
+    <t>BIOEMPAK SA</t>
+  </si>
+  <si>
+    <t>BUSINESSES LABORATORY SAS</t>
+  </si>
+  <si>
+    <t>CARTONES AMERICA S.A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARVAJAL TECNOLOGIA Y SERVICIOS S A S </t>
+  </si>
+  <si>
+    <t>CHEMICAL SERVICES S A S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLARIPACK S.A </t>
+  </si>
+  <si>
+    <t>COLOMPACK S.A</t>
+  </si>
+  <si>
+    <t>COMPUNET SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONEXION OUTSOURCING SAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CROMANAL LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIEMPAQUES S.A.S </t>
+  </si>
+  <si>
+    <t>DIMATIC SISTEMAS DE MARCACION LTDA</t>
+  </si>
+  <si>
+    <t>DISAN COLOMBIA SA</t>
+  </si>
+  <si>
+    <t>PRODUCTORA DE AROMAS Y FRAGANCIAS S.A.S</t>
+  </si>
+  <si>
+    <t>DISTRIBUIDORA EXPRESS L &amp; A SAS</t>
+  </si>
+  <si>
+    <t>FABRIFARMA S.A</t>
+  </si>
+  <si>
+    <t>FACTORES Y MERCADEO S.A.</t>
+  </si>
+  <si>
+    <t>GENETICOS MP SAS</t>
+  </si>
+  <si>
+    <t>HERPIN IMPRESORES Y CIA S.A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMCD COLOMBIA S.A.S </t>
+  </si>
+  <si>
+    <t>LABMOL SAS</t>
+  </si>
+  <si>
+    <t>LABORATORIO FARBROQUIM SA</t>
+  </si>
+  <si>
+    <t>LITO ROMAC IMPRESORES S A S</t>
+  </si>
+  <si>
+    <t>MANUELITA S.A.</t>
+  </si>
+  <si>
+    <t>MERQUIMIA COLOMBIA S.A</t>
+  </si>
+  <si>
+    <t>MICROBIOLOGIA PHARMACEUTICA LIMITADA</t>
+  </si>
+  <si>
+    <t>MOLECULAS FARMACEUTICAS SAS</t>
+  </si>
+  <si>
+    <t>OPEN MARKET LTDA</t>
+  </si>
+  <si>
+    <t>PHARMAQ HMH SAS</t>
+  </si>
+  <si>
+    <t>PHARMAQUIM DE COLOMBIA SAS</t>
+  </si>
+  <si>
+    <t>POLIMERICA S.A.S</t>
+  </si>
+  <si>
+    <t>PRODUCTORES DE ENVASES FARMACEUTICOS S.A.S. PROENFAR</t>
+  </si>
+  <si>
+    <t>PROQUIFAR S.A.S  PROFESIONALES QUIMICOS Y FARMACEUTICOS S.A.S</t>
+  </si>
+  <si>
+    <t>PROSERMAX SAS</t>
+  </si>
+  <si>
+    <t>QUALISYSTEM S.A.S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUASFAR M &amp; F </t>
+  </si>
+  <si>
+    <t>QUIMIA SAS</t>
+  </si>
+  <si>
+    <t>RESEARCH PHARMACEUTICAL SA</t>
+  </si>
+  <si>
+    <t>SERVICIO DE ACONDICIONAMIENTO Y LOGISTICA PARA LA INDUSTRIA FARMACEUTICA SAS ACOLOGISTIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINTHYA QUIMICA SAS ESP </t>
+  </si>
+  <si>
+    <t>SOLUCIONES EN INNOVACION FARMACEUTICA S.A.S</t>
+  </si>
+  <si>
+    <t>SUMINISTROS ANALITICOS SAS</t>
+  </si>
+  <si>
+    <t>ALTEA FARMACEUTICA SA</t>
+  </si>
+  <si>
+    <t>ARBOFARMA</t>
+  </si>
+  <si>
+    <t>ASTRO PHARMA SAS</t>
+  </si>
+  <si>
+    <t>DVA HEALTH &amp; NUTRITION COLOMBIA S.A.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GASES INDUSTRIALES Y MEDICINALES COMPANY SAS </t>
+  </si>
+  <si>
+    <t>FUMISERVICES SAS</t>
+  </si>
+  <si>
+    <t>GLOBALQUIMIA LTDA</t>
+  </si>
+  <si>
+    <t>LQF S.A.S.</t>
+  </si>
+  <si>
+    <t>INMOBILIARIA ALOJAR SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Q M SAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDUSTRIAS DE ENVASES </t>
+  </si>
+  <si>
+    <t>COMPAÑIA COLOMBIANA DE CORRUGADOS S.A.S</t>
+  </si>
+  <si>
+    <t>LABORATORIOS FARMACEUTICOS Y NUTRICIONALES</t>
+  </si>
+  <si>
+    <t>recepcion@abcgotuplas.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">administracion@activesoft.com.co </t>
+  </si>
+  <si>
+    <t>adexapharma@hotmail.com</t>
+  </si>
+  <si>
+    <t>SERVIAUTOCLASS@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>contabilidad@avalquimicosas.com.co</t>
+  </si>
+  <si>
+    <t>Bagesyco@hotmail.com</t>
+  </si>
+  <si>
+    <t>m.ortiz@grupobenstar.com</t>
+  </si>
+  <si>
+    <t>analista.contable@bioempak.com</t>
+  </si>
+  <si>
+    <t>contabilidad@blab.com.co</t>
+  </si>
+  <si>
+    <t>Isabel.pelaez@gmail.com</t>
+  </si>
+  <si>
+    <t>Valmiro.Donado@carvajal.com 
+Felipe.Ortiz@carvajal.com</t>
+  </si>
+  <si>
+    <t>chemicalservicessas63@gmail.com</t>
+  </si>
+  <si>
+    <t>contador@claripack.com</t>
+  </si>
+  <si>
+    <t>alberto.betancourt@suiphar.com</t>
+  </si>
+  <si>
+    <t>Operaciones.Cartera@grupocnet.com</t>
+  </si>
+  <si>
+    <t>mercadeo@asignar.com.co</t>
+  </si>
+  <si>
+    <t>auxcontabilidad@cromanal.com 
+facturacion@cromanal.com.co
+3102366706</t>
+  </si>
+  <si>
+    <t>contabilidad@diempaques.com auxcontabilidad@diempaques.com facturacion@diempaques.com</t>
+  </si>
+  <si>
+    <t>Cartera@dimatic.net</t>
+  </si>
+  <si>
+    <t>jacqueline.garzon@disan.com.co</t>
+  </si>
+  <si>
+    <t>Cartera@disaromas.com</t>
+  </si>
+  <si>
+    <t>carteradistribuidoraexpress@gmail.com</t>
+  </si>
+  <si>
+    <t>ygonzalez@farmaser.com.co</t>
+  </si>
+  <si>
+    <t>cartera2@factoresymercadeo.com</t>
+  </si>
+  <si>
+    <t>contabilidad@quirupos.com</t>
+  </si>
+  <si>
+    <t>olgamolina@herpinimpresores.com</t>
+  </si>
+  <si>
+    <t>Katherin.Pinilla@imcdcolombia.com</t>
+  </si>
+  <si>
+    <t>labmolsas@gmail.com</t>
+  </si>
+  <si>
+    <t>claudia.puerto@farbroquim.com.co</t>
+  </si>
+  <si>
+    <t>yquintero@litoromac.co</t>
+  </si>
+  <si>
+    <t>maria.reyes@manuelita.com</t>
+  </si>
+  <si>
+    <t>cartera@merquimiacolombia.com</t>
+  </si>
+  <si>
+    <t>asistentecontable2@micropharm.com.co
+asistentecontable@micropharm.com.co</t>
+  </si>
+  <si>
+    <t>Auxiliar.prodemol@gmail.com</t>
+  </si>
+  <si>
+    <t>leidy.guerrero@solistica.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>pharmaq1@pharmaqhmh.com.co</t>
+    </r>
+  </si>
+  <si>
+    <t>info@pharmaquimdecolombia.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coor-tesore@polimerica.com / co2@polimerica.com </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>patriciac@</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>proenfar.com</t>
+    </r>
+  </si>
+  <si>
+    <t>contabilidad@proquifar.com
+julieth.pedrozo@proquifar.com 
+recepcion@proquifar.com</t>
+  </si>
+  <si>
+    <t>facturacion@laboratoriosdemac.com.co</t>
+  </si>
+  <si>
+    <t>analista.facturacion@quasfar.com.co</t>
+  </si>
+  <si>
+    <t>administracion@quimia.com.co</t>
+  </si>
+  <si>
+    <t>hilda.castellano@researchpharmaceutical.com</t>
+  </si>
+  <si>
+    <t>contabilidadsinthyaquimica@gmail.com</t>
+  </si>
+  <si>
+    <t>Damaris.Montoya@azelis.com</t>
+  </si>
+  <si>
+    <t>contabilidad@suministrosanaliticos.com 
+ventas@suministrosanaliticos.com</t>
+  </si>
+  <si>
+    <t>sandra.diaz@alteafarma.com</t>
+  </si>
+  <si>
+    <t>contabilidad@arbofarma.com</t>
+  </si>
+  <si>
+    <t>Contabilidad@astropharma.com</t>
+  </si>
+  <si>
+    <t>xiomara.ordonez@dva.com</t>
+  </si>
+  <si>
+    <t>gases.industriales.medicinales@gmail.com</t>
+  </si>
+  <si>
+    <t>admonfumiservices@gmail.com</t>
+  </si>
+  <si>
+    <t>admin@globalquimia.com.co</t>
+  </si>
+  <si>
+    <t>contabilidad@lqfcalidad.com</t>
+  </si>
+  <si>
+    <t>contactenos@alojarsa.com</t>
+  </si>
+  <si>
+    <t>auxcontabilidad@aqm.com
+facturacion@aqm.com.co</t>
+  </si>
+  <si>
+    <t>dcinduvases@induvases.com</t>
+  </si>
+  <si>
+    <t>admin@ccorrugados.com</t>
+  </si>
+  <si>
+    <t>contabilidad@fynlabs.co</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,12 +451,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,7 +482,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -86,21 +490,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -416,13 +834,13 @@
   <dimension ref="A1:C7809"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.21875" customWidth="1"/>
-    <col min="3" max="3" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" customWidth="1"/>
+    <col min="3" max="3" width="99.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -437,334 +855,682 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>860039988</v>
+      <c r="A2" s="3">
+        <v>830006911</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>900547051</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>79813424</v>
+      <c r="C3" s="3" t="s">
+        <v>66</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>900387449</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>830030321</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
+        <v>79880525</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>900072693</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>860080410</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>901899009</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>800241068</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>900144376</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>860026759</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>890321151</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
+      <c r="C12" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="3">
+        <v>900319132</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="3">
+        <v>860079486</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="A15" s="3">
+        <v>830059393</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="A16" s="3">
+        <v>800150249</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="A17" s="3">
+        <v>900434421</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="A18" s="3">
+        <v>900079175</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="A19" s="3">
+        <v>900048343</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="A20" s="3">
+        <v>900043394</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="A21" s="3">
+        <v>860048867</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="A22" s="3">
+        <v>860512699</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="A23" s="3">
+        <v>900640483</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="A24" s="3">
+        <v>900023247</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="A25" s="3">
+        <v>800077828</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="A26" s="3">
+        <v>900489292</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="A27" s="3">
+        <v>860501469</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="A28" s="3">
+        <v>800134597</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="A29" s="3">
+        <v>901294530</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="A30" s="3">
+        <v>900331875</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="A31" s="3">
+        <v>830142687</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="A32" s="3">
+        <v>891300241</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="A33" s="3">
+        <v>830116746</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="A34" s="3">
+        <v>900138420</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="A35" s="3">
+        <v>901225687</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="A36" s="3">
+        <v>860350940</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="A37" s="3">
+        <v>900100394</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="A38" s="3">
+        <v>900349009</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="A39" s="3">
+        <v>830087275</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="A40" s="3">
+        <v>860513290</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="A41" s="3">
+        <v>830008716</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="A42" s="3">
+        <v>901210676</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="A43" s="3">
+        <v>900515809</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="A44" s="3">
+        <v>830026911</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="A45" s="3">
+        <v>830055341</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="A46" s="3">
+        <v>830039775</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="A47" s="3">
+        <v>900735163</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="A48" s="3">
+        <v>830118404</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="A49" s="3">
+        <v>900697636</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="A50" s="3">
+        <v>900742899</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="A51" s="3">
+        <v>900463029</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="A52" s="3">
+        <v>830072323</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="A53" s="3">
+        <v>900683216</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="A54" s="3">
+        <v>901199585</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="A55" s="3">
+        <v>901451698</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
+      <c r="A56" s="3">
+        <v>901061985</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
+      <c r="A57" s="3">
+        <v>900143599</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
+      <c r="A58" s="3">
+        <v>830123449</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="A59" s="3">
+        <v>800175377</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="A60" s="3">
+        <v>830005407</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+      <c r="A61" s="3">
+        <v>891300120</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+      <c r="A62" s="3">
+        <v>900222341</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="A63" s="3">
+        <v>901259205</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
@@ -39499,11 +40265,23 @@
   </sheetData>
   <autoFilter ref="A1:C7809" xr:uid="{7B82156A-906E-4D1D-B6BE-15E1A8DAA1D7}"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{39E1E8EE-F3A5-4C47-AD75-A4A45F7A37DE}"/>
-    <hyperlink ref="C3:C5" r:id="rId2" display="camonteroperez@gmail.com" xr:uid="{7ACDA7A5-92FA-481A-B7ED-4EEE1906E432}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{9E3EC754-2F19-480B-96F8-6B61DC212A16}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{C88B09DD-F274-456B-ABFC-C48DD7BD66C1}"/>
+    <hyperlink ref="C13" r:id="rId3" xr:uid="{FD39A799-D6BA-43A9-BA3A-9F48EC1D7550}"/>
+    <hyperlink ref="C19" r:id="rId4" xr:uid="{85BE40DA-0A8A-4879-A317-4521C67CB35F}"/>
+    <hyperlink ref="C26" r:id="rId5" xr:uid="{ED03CC75-4167-4C69-B6D1-B107014C1975}"/>
+    <hyperlink ref="C27" r:id="rId6" xr:uid="{892738C0-64EB-4B0D-8B96-03966CD42F36}"/>
+    <hyperlink ref="C31" r:id="rId7" xr:uid="{C4C90E0A-D7BC-4F0D-AB1A-EDCAB18FC659}"/>
+    <hyperlink ref="C33" r:id="rId8" xr:uid="{7F5E8513-C7BF-4A15-B39F-9FB376DD6FA6}"/>
+    <hyperlink ref="C37" r:id="rId9" xr:uid="{E311D5BD-0DC4-4B3B-B79E-00D59DDA63AA}"/>
+    <hyperlink ref="C38" r:id="rId10" xr:uid="{650FEB46-3E73-4FA9-933E-0A0ED6E8253D}"/>
+    <hyperlink ref="C40" r:id="rId11" xr:uid="{C553C7BC-5FC3-4409-ADE5-B17BED1B20BC}"/>
+    <hyperlink ref="C54" r:id="rId12" xr:uid="{6D150C03-284B-4A03-A43E-1CFD481469EA}"/>
+    <hyperlink ref="C55" r:id="rId13" xr:uid="{526467FF-C917-4D38-B9D5-44DEAE6CB00A}"/>
+    <hyperlink ref="C63" r:id="rId14" xr:uid="{F2E5D185-5A09-4D64-B4FB-87B1D44949CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Informacion publica</oddFooter>
   </headerFooter>
